--- a/PlanilhaDeRiscos.xlsx
+++ b/PlanilhaDeRiscos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\Entregaveis sprint 2\Projeto-Sprint-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB621CD9-9ACF-4961-9973-2CFADC23ACA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687CCAE8-1B8E-422F-A44F-08E607365EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{958CC5AD-8C89-4F64-9E04-AA26CF63A86F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>Equipe cobra mais orientações do lider</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Alto(3)</t>
+  </si>
+  <si>
+    <t>Médio(2)</t>
+  </si>
+  <si>
+    <t>Baixo(1)</t>
+  </si>
+  <si>
+    <t>Pouco Provável(1)</t>
+  </si>
+  <si>
+    <t>Provável(2)</t>
+  </si>
+  <si>
+    <t>Muito Provável(3)</t>
+  </si>
+  <si>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>Projeto não permanecer no mercado</t>
+  </si>
+  <si>
+    <t>Propor novas ideias para o projeto e ampliar nosso área de atuação</t>
   </si>
 </sst>
 </file>
@@ -150,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,62 +225,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2627B94-3D0A-4F9D-88E2-5E989B455955}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,413 +639,684 @@
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="5">
+        <v>3</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="21">
+        <v>6</v>
+      </c>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21">
+        <v>9</v>
+      </c>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="16">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
         <v>3</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="T6" s="4"/>
+      <c r="U6" s="5">
+        <v>4</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="21">
+        <v>6</v>
+      </c>
+      <c r="X6" s="21"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="16">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
         <v>3</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>2</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="U18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="20"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="16">
+      <c r="F19" s="4"/>
+      <c r="G19" s="21">
         <v>3</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21">
         <v>6</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17">
-        <v>3</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17">
-        <v>3</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18" t="s">
+      <c r="J19" s="21"/>
+      <c r="K19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="15"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="M11:P14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E15:F18"/>
-    <mergeCell ref="G15:H18"/>
-    <mergeCell ref="I15:J18"/>
-    <mergeCell ref="K15:L18"/>
-    <mergeCell ref="M15:P18"/>
+  <mergeCells count="59">
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="S10:T13"/>
+    <mergeCell ref="U10:V13"/>
+    <mergeCell ref="W10:X13"/>
+    <mergeCell ref="S14:T17"/>
+    <mergeCell ref="U14:V17"/>
+    <mergeCell ref="W14:X17"/>
+    <mergeCell ref="S2:T5"/>
+    <mergeCell ref="U2:V5"/>
+    <mergeCell ref="W2:X5"/>
+    <mergeCell ref="S6:T9"/>
+    <mergeCell ref="U6:V9"/>
+    <mergeCell ref="W6:X9"/>
+    <mergeCell ref="M19:P22"/>
+    <mergeCell ref="Q2:R5"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="Q10:R13"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:D22"/>
+    <mergeCell ref="E19:F22"/>
+    <mergeCell ref="G19:H22"/>
+    <mergeCell ref="I19:J22"/>
+    <mergeCell ref="K19:L22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="E3:F6"/>
+    <mergeCell ref="G3:H6"/>
+    <mergeCell ref="I3:J6"/>
+    <mergeCell ref="K3:L6"/>
     <mergeCell ref="M1:P2"/>
     <mergeCell ref="M3:P6"/>
     <mergeCell ref="M7:P10"/>
@@ -1001,17 +1333,14 @@
     <mergeCell ref="I7:J10"/>
     <mergeCell ref="K7:L10"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="E3:F6"/>
-    <mergeCell ref="G3:H6"/>
-    <mergeCell ref="I3:J6"/>
-    <mergeCell ref="K3:L6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M11:P14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E15:F18"/>
+    <mergeCell ref="G15:H18"/>
+    <mergeCell ref="I15:J18"/>
+    <mergeCell ref="K15:L18"/>
+    <mergeCell ref="M15:P18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
